--- a/Web/Uploads/files/ImportNha_Template.xlsx
+++ b/Web/Uploads/files/ImportNha_Template.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="521">
   <si>
     <t>Mặt bằng</t>
   </si>
@@ -1589,31 +1589,22 @@
     <t>Không</t>
   </si>
   <si>
-    <t>A gờ ri bank</t>
-  </si>
-  <si>
-    <t>Chị Thảo - chủ nhà</t>
-  </si>
-  <si>
-    <t>Test import1</t>
-  </si>
-  <si>
-    <t>Test import2</t>
-  </si>
-  <si>
-    <t>Chị Thảo - giáo viên</t>
-  </si>
-  <si>
-    <t>FPT</t>
-  </si>
-  <si>
     <t>Diện tích đất sử dụng tầng 1</t>
+  </si>
+  <si>
+    <t>Test import</t>
+  </si>
+  <si>
+    <t>09876555698</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="dd\/mm\/yyyy"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1644,12 +1635,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1664,16 +1661,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1978,10 +1983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,8 +1998,8 @@
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -2003,8 +2008,8 @@
     <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.5703125" customWidth="1"/>
   </cols>
@@ -2035,7 +2040,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>8</v>
@@ -2067,10 +2072,10 @@
       <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="7" t="s">
         <v>19</v>
       </c>
       <c r="V1" s="4" t="s">
@@ -2082,37 +2087,37 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>519</v>
       </c>
       <c r="E2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
         <v>14</v>
-      </c>
-      <c r="H2">
-        <v>16</v>
-      </c>
-      <c r="I2">
-        <v>60</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>65</v>
       </c>
       <c r="L2" t="s">
         <v>516</v>
@@ -2121,93 +2126,31 @@
         <v>517</v>
       </c>
       <c r="N2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="O2" t="s">
         <v>499</v>
       </c>
       <c r="P2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Q2">
-        <v>1500000</v>
-      </c>
-      <c r="R2">
-        <v>1450000</v>
+        <v>12456</v>
       </c>
       <c r="S2" t="s">
         <v>519</v>
       </c>
-      <c r="T2">
-        <v>987563256</v>
+      <c r="T2" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="U2" s="8">
+        <v>43081</v>
       </c>
       <c r="V2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="W2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>510</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>523</v>
-      </c>
-      <c r="G3">
-        <v>14</v>
-      </c>
-      <c r="H3">
-        <v>16</v>
-      </c>
-      <c r="I3">
-        <v>60</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>65</v>
-      </c>
-      <c r="L3" t="s">
-        <v>516</v>
-      </c>
-      <c r="M3" t="s">
-        <v>517</v>
-      </c>
-      <c r="N3" t="s">
-        <v>516</v>
-      </c>
-      <c r="O3" t="s">
-        <v>514</v>
-      </c>
-      <c r="P3" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q3">
-        <v>1500000</v>
-      </c>
-      <c r="R3">
-        <v>1450000</v>
-      </c>
-      <c r="S3" t="s">
-        <v>522</v>
-      </c>
-      <c r="T3">
-        <v>987563256</v>
-      </c>
-      <c r="V3" t="s">
-        <v>496</v>
-      </c>
-      <c r="W3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -2221,43 +2164,43 @@
           <x14:formula1>
             <xm:f>Quan!$B$1:$B$13</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B3</xm:sqref>
+          <xm:sqref>B2:B20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>MatBang!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A3</xm:sqref>
+          <xm:sqref>A2:A20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Duong!$B$1:$B$503</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C3</xm:sqref>
+          <xm:sqref>C2:C20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>YorN!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:N3</xm:sqref>
+          <xm:sqref>L2:N20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>NoiThatKhachThueCu!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O3</xm:sqref>
+          <xm:sqref>O2:O20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DanhGiaPhuHopVoi!$A$1:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>P2:P3</xm:sqref>
+          <xm:sqref>P2:P21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>CapDoTheoDoi!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>V2:V3</xm:sqref>
+          <xm:sqref>V2:V20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
